--- a/biology/Botanique/Prunus_cocomilia/Prunus_cocomilia.xlsx
+++ b/biology/Botanique/Prunus_cocomilia/Prunus_cocomilia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prunus cocomilia est une espèce de plantes à fleurs de la famille des Rosaceae. On le trouve en Europe de l'Est, en Italie et en Asie occidentale.
 Il a été décrit aussi sous le nom de Prunus pseudoarmeniaca Heldr. &amp; Sartori, 1856, le faux abricotier.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Prunus cocomilia est un arbuste à feuilles caduques, faiblement épineux, de 1,50 mètre à 5 mètres de hauteur.
-La feuille obovale à elliptique est portée par un pétiole de 10-15 mm de long. Le limbe de 20-30 × 15-25 mm, aux bords crénelés, dentelés, porte une paire de grosses glandes à la base[1].
+La feuille obovale à elliptique est portée par un pétiole de 10-15 mm de long. Le limbe de 20-30 × 15-25 mm, aux bords crénelés, dentelés, porte une paire de grosses glandes à la base.
 Les fleurs, une ou deux par bourgeon, font 20-30 mm de diamètre. L'hypanthium est en forme de coupe. Les pétales orbiculaires sont habituellement blancs, parfois roses.
 La floraison se situe en avril.
 La fleur produit une drupe de 2 cm de diamètre, globuleuse à ovale, jaune, violet orange ou noire. Elle est peu acide, comestible.
@@ -547,7 +561,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">P. cocomilia pousse dans les forêts mixtes de feuillus, le bord des champs et les jardins.
 Il est distribué dans toute la Turquie, l'Italie, l'ex-Yougoslavie, la Grèce, le Liban, la Palestine.
